--- a/output/fit_clients/fit_round_363.xlsx
+++ b/output/fit_clients/fit_round_363.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1909091876.12097</v>
+        <v>2072325475.707967</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09037041391924251</v>
+        <v>0.09702402037581062</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04323244747485557</v>
+        <v>0.02995720153226579</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>954545921.459132</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1839150207.734659</v>
+        <v>2155220235.566532</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1776063415791056</v>
+        <v>0.1578245854067971</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04903459891651104</v>
+        <v>0.0354199249406561</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>919575119.0207407</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4217405036.814206</v>
+        <v>4629052465.713202</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1410660271033941</v>
+        <v>0.103737953741465</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03573853010611172</v>
+        <v>0.02333691802422983</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>131</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2108702547.989559</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3370780116.291076</v>
+        <v>3726540610.334184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08893830138813613</v>
+        <v>0.1023856642923153</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03389975793833001</v>
+        <v>0.04363119292194292</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>134</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1685390103.482733</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2234246658.500551</v>
+        <v>2384598001.394662</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1352306777548286</v>
+        <v>0.1368384759056963</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05496746471090076</v>
+        <v>0.04943253394229718</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>68</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1117123333.504005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2459431592.278394</v>
+        <v>2127078514.902296</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09559744784111732</v>
+        <v>0.1014668381179746</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03992705796940027</v>
+        <v>0.0493408336085293</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>114</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1229715813.086775</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2561200059.125143</v>
+        <v>2996771991.529222</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1906619230255895</v>
+        <v>0.1973537449820918</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02054715615497897</v>
+        <v>0.02266888512628656</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>115</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1280600042.228383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2241098434.857759</v>
+        <v>1962322059.125295</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1758905985118931</v>
+        <v>0.1280937633332881</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03292398031677768</v>
+        <v>0.02353782307121319</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1120549210.60052</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4513697573.173164</v>
+        <v>4566132379.337353</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1415505546017942</v>
+        <v>0.1437779009960406</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05190957072046804</v>
+        <v>0.03710344846706252</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>153</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2256848848.236439</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3376699738.312799</v>
+        <v>2944915982.55911</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1199164754179883</v>
+        <v>0.1251375075194398</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04343695957289407</v>
+        <v>0.03484394756477457</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>150</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1688349838.351197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2973209374.191162</v>
+        <v>2364322458.835151</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1921304307153873</v>
+        <v>0.1864076647505885</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05228802920492921</v>
+        <v>0.0375151914598536</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>124</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1486604702.665862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4992541585.714058</v>
+        <v>4939871721.590011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06412844504965802</v>
+        <v>0.07660254657995186</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02897484343893603</v>
+        <v>0.02234358845902524</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>122</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2496270797.382129</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3203660651.599846</v>
+        <v>2705567372.038651</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1823234447722736</v>
+        <v>0.1827293064574528</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02947351475385342</v>
+        <v>0.03116563078361975</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1601830345.503176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1799207639.890107</v>
+        <v>1551478306.331706</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09502837004825219</v>
+        <v>0.08899936086257154</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03168221288230717</v>
+        <v>0.03959982591766718</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>899603973.288757</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2006737740.379549</v>
+        <v>1961137862.235404</v>
       </c>
       <c r="F16" t="n">
-        <v>0.105146128980942</v>
+        <v>0.08053513587483892</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03533720151288015</v>
+        <v>0.04755528566089737</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>73</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1003368945.079478</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4059415934.069736</v>
+        <v>4185224207.399392</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1194083826317104</v>
+        <v>0.1275678880390603</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03208314153845175</v>
+        <v>0.04989560710088851</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>106</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2029707998.66225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3964180350.968677</v>
+        <v>3657696633.564359</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1782221715298849</v>
+        <v>0.1448750452962209</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0210688495869393</v>
+        <v>0.02731932771796433</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>119</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1982090135.918867</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1219492378.513212</v>
+        <v>989565124.4845998</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1606528427798597</v>
+        <v>0.1728580553475263</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02095064931792751</v>
+        <v>0.02408767701899042</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>609746271.9622183</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2485468905.641556</v>
+        <v>2082722298.037749</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1132351944818487</v>
+        <v>0.1078551185981835</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02900750604231958</v>
+        <v>0.02813830020305898</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1242734427.450947</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1737547839.9425</v>
+        <v>2306652815.108218</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06424617264433755</v>
+        <v>0.07154933270055057</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04090341578272112</v>
+        <v>0.03148891699718524</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>868773981.0346656</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3356879775.676147</v>
+        <v>3169087781.49953</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1335887078827697</v>
+        <v>0.09439330845392913</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04888863251955316</v>
+        <v>0.04205250556563802</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>101</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1678439928.010785</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1263615363.185578</v>
+        <v>1282898150.660105</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1497695486324972</v>
+        <v>0.1273840511727131</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0365171121429735</v>
+        <v>0.04435804578504277</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>631807707.3609619</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4097781825.395905</v>
+        <v>3435881661.876397</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1295999151704608</v>
+        <v>0.09672413701557056</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03551150459725979</v>
+        <v>0.03430461782399252</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>106</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2048890874.121839</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1195195150.073536</v>
+        <v>1315844962.94596</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09808028897351692</v>
+        <v>0.1102017141729477</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02121879115476159</v>
+        <v>0.01927467294308057</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>597597594.1420121</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1110465387.828164</v>
+        <v>1269815314.935406</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1154181017031393</v>
+        <v>0.1057107481511397</v>
       </c>
       <c r="G26" t="n">
-        <v>0.030879562278274</v>
+        <v>0.03032093149182031</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>555232693.0296508</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4091179930.071447</v>
+        <v>3799446133.348396</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1448630731904703</v>
+        <v>0.11659441177986</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01787598752609049</v>
+        <v>0.02196793847259492</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2045589970.695069</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2433543933.480938</v>
+        <v>3426696843.253156</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09479159891454576</v>
+        <v>0.1180396577903087</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04181547315450376</v>
+        <v>0.04963721338073495</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1216771928.803369</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5737531322.162276</v>
+        <v>5318709747.261772</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1495891521268803</v>
+        <v>0.1227827028113358</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03889765807076204</v>
+        <v>0.03923961251613752</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>160</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2868765557.530934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2283910841.819117</v>
+        <v>1898167885.046051</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1372214824516561</v>
+        <v>0.139710436625466</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02782539808306944</v>
+        <v>0.04020791216879073</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1141955490.715158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1373118704.883037</v>
+        <v>1052750110.223613</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08322029290698334</v>
+        <v>0.09653159134185868</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03889975447194279</v>
+        <v>0.04312120296864024</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>686559263.1564242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1601329735.668616</v>
+        <v>1317230765.678121</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07616665458961069</v>
+        <v>0.1022188766463307</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03577452361945252</v>
+        <v>0.03355977815843308</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>800664957.1890446</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2108805129.356205</v>
+        <v>2357482146.979252</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1780084229370089</v>
+        <v>0.191035047407307</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05412232763745729</v>
+        <v>0.05746328978438382</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>109</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1054402636.197251</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1245195665.009515</v>
+        <v>995224417.3994704</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08568396304939931</v>
+        <v>0.1102987056056563</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02475557353450793</v>
+        <v>0.02847101891311745</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>622597830.1612617</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1048457399.293412</v>
+        <v>991492541.1581135</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08239561412351039</v>
+        <v>0.0874877442446131</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04438480980649731</v>
+        <v>0.03376793409531673</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>524228707.6118885</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2075887666.43016</v>
+        <v>3156424833.133027</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1208299497118031</v>
+        <v>0.1177675079121011</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01799493417102279</v>
+        <v>0.02132734141542643</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1037943889.195165</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2349212281.573284</v>
+        <v>1975884033.223566</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07799516369298885</v>
+        <v>0.08428734959931576</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03317377286582184</v>
+        <v>0.03867766846465442</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>97</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1174606216.121577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1353324317.940433</v>
+        <v>1553757450.062205</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1033524342418722</v>
+        <v>0.1121015570202609</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03016109831475404</v>
+        <v>0.03275504257535861</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>676662228.9534771</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1528179558.988349</v>
+        <v>1339118078.975945</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1805166450777651</v>
+        <v>0.1169237248790549</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02882940090958107</v>
+        <v>0.02658574848677624</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>764089845.6495285</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1556250639.961165</v>
+        <v>1583578667.229863</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1246094659375189</v>
+        <v>0.146278739810601</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04944590700709666</v>
+        <v>0.05504513335531822</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>778125272.0937878</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2111389587.594296</v>
+        <v>2427119178.193489</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1002102404566711</v>
+        <v>0.1570639995775475</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04421555045557067</v>
+        <v>0.02970864296447178</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>93</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1055694857.175074</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3305113643.948586</v>
+        <v>2992183458.655385</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1046756197547723</v>
+        <v>0.08327312750891711</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02998177453132737</v>
+        <v>0.03833710673482739</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>120</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1652556803.451144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2048244971.461323</v>
+        <v>2972857513.879581</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2012217685629318</v>
+        <v>0.1273395045096115</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02576485335664068</v>
+        <v>0.01740565479862635</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>128</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1024122579.817141</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1590488575.434203</v>
+        <v>1456911224.244069</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09549723530814233</v>
+        <v>0.06516394064946779</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02981499415849152</v>
+        <v>0.03300838030402387</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>795244312.367052</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1782999019.052247</v>
+        <v>1869449691.115422</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1719005722602067</v>
+        <v>0.1400938180837649</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03549151586250528</v>
+        <v>0.03963293025712362</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>891499478.5343593</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5048683620.320166</v>
+        <v>3698732257.09572</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1363477965818248</v>
+        <v>0.1369005357006801</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03943429446242427</v>
+        <v>0.05797875632955305</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>129</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2524341839.740439</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3496012000.865674</v>
+        <v>5042035591.230996</v>
       </c>
       <c r="F47" t="n">
-        <v>0.191013377644635</v>
+        <v>0.1831878241669068</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05544935199335536</v>
+        <v>0.05236309345158416</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>97</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1748005971.029857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3674746099.001077</v>
+        <v>4255036517.580989</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07608484935788258</v>
+        <v>0.08669394946871142</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02431996713724012</v>
+        <v>0.0249891463324262</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>119</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1837373102.764087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1930819442.21488</v>
+        <v>1491982054.198139</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1393033076755932</v>
+        <v>0.1942501220597398</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04159009085809281</v>
+        <v>0.02799395348406636</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>965409686.1691425</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2969529086.934721</v>
+        <v>3929330435.112302</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1555845469331502</v>
+        <v>0.1095444633688491</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03444106296444583</v>
+        <v>0.04197504636279768</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>124</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1484764605.462364</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1070234730.731733</v>
+        <v>1099253682.649601</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1238279838093492</v>
+        <v>0.1822119389475718</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05122925030776326</v>
+        <v>0.04149784045066741</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>535117437.9631881</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3900154506.706912</v>
+        <v>4278056618.68655</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0899920313013214</v>
+        <v>0.1052888214668733</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05378637602741293</v>
+        <v>0.05449135502042112</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>149</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1950077315.719836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3627239735.066464</v>
+        <v>2362090908.818044</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1739145336160888</v>
+        <v>0.1778099950681577</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02616309211685595</v>
+        <v>0.02774779152798296</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1813619856.698701</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3559100270.997577</v>
+        <v>4649497857.15892</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1489225804172129</v>
+        <v>0.1455756633414788</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0410967765535569</v>
+        <v>0.03801960690785165</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>119</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1779550164.970619</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4008581680.713624</v>
+        <v>4368319389.960343</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1806869513636159</v>
+        <v>0.1494725774483688</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02839913118829221</v>
+        <v>0.01974787768530595</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>97</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2004290815.642598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1639941280.019321</v>
+        <v>1266476698.445585</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1190157542744218</v>
+        <v>0.1527166699292163</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05559054802671893</v>
+        <v>0.0362786723677504</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>819970661.5142248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3917026445.638268</v>
+        <v>3402956845.679635</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1203681954524403</v>
+        <v>0.111224345319963</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02524693887325017</v>
+        <v>0.0240601484902933</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>115</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1958513304.230265</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1525526848.720018</v>
+        <v>1694236816.797758</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1722310259808043</v>
+        <v>0.1622162096695606</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0248311911993732</v>
+        <v>0.02409612315153718</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>762763453.1718904</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3837820951.482638</v>
+        <v>3670060367.023071</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1051821757959114</v>
+        <v>0.1187388914270053</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04518984425336266</v>
+        <v>0.04536674746221935</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1918910459.50734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2668878433.352259</v>
+        <v>2619083224.080613</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1276087862057038</v>
+        <v>0.1511577230846563</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02214975886391995</v>
+        <v>0.02644619799782846</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>112</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1334439252.302587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2757974979.278474</v>
+        <v>3250466891.428759</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1724675379888204</v>
+        <v>0.1217619294508613</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0259319517303</v>
+        <v>0.02932215825785739</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>125</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1378987492.940122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1721707748.983574</v>
+        <v>1457947040.976248</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1386165927938627</v>
+        <v>0.1270708067265074</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03983139159991216</v>
+        <v>0.03417032602478007</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>860853890.8402917</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4254982640.273909</v>
+        <v>4732530664.57621</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0862702418536174</v>
+        <v>0.06522410730480856</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03075308927640144</v>
+        <v>0.03170641061225368</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2127491371.134245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3485748892.405794</v>
+        <v>3910502450.445499</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1755363719174562</v>
+        <v>0.1888106588085939</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02270741993404252</v>
+        <v>0.03169232002747525</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>113</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1742874445.908026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5885016697.614973</v>
+        <v>3760415826.561069</v>
       </c>
       <c r="F65" t="n">
-        <v>0.16335598954196</v>
+        <v>0.107371810294444</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02911584224651079</v>
+        <v>0.02831587518970965</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>130</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2942508254.90293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3697893536.396033</v>
+        <v>4615329889.882737</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1617739763091545</v>
+        <v>0.1294262674934831</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04854586863568975</v>
+        <v>0.04432162027906243</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>106</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1848946725.587506</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2539447037.239336</v>
+        <v>3397026912.298512</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06790870272288912</v>
+        <v>0.09426382099368488</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0490960339091485</v>
+        <v>0.04206899152014362</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>116</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1269723575.890886</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4196758205.227773</v>
+        <v>5305851214.922345</v>
       </c>
       <c r="F68" t="n">
-        <v>0.150363223674741</v>
+        <v>0.110816429801229</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04401813050875344</v>
+        <v>0.03349026942192501</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>117</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2098379110.331839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1735444250.444397</v>
+        <v>1976142938.107113</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1612444963158321</v>
+        <v>0.1672030445533071</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05466373399438688</v>
+        <v>0.04739311803707349</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>867722096.0066317</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3276235294.608127</v>
+        <v>3213398058.116376</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06774214551425062</v>
+        <v>0.100429208643102</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04036459660278204</v>
+        <v>0.03908073300253167</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>104</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1638117642.260046</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4326260352.278726</v>
+        <v>4242914369.877051</v>
       </c>
       <c r="F71" t="n">
-        <v>0.162719586728373</v>
+        <v>0.1261063481758028</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02218649829782328</v>
+        <v>0.02979034586878271</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>132</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2163130231.53293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1377513645.160038</v>
+        <v>1658652282.056224</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08092476372013789</v>
+        <v>0.06883282299453748</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03849185164627254</v>
+        <v>0.03614389591078589</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>688756869.3448302</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3054902233.650084</v>
+        <v>3491963582.992284</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08939966387449072</v>
+        <v>0.1089020170396037</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04943389239237889</v>
+        <v>0.05150177747727528</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>137</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1527451107.785944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2901032077.260424</v>
+        <v>3705510460.246776</v>
       </c>
       <c r="F74" t="n">
-        <v>0.166418967083694</v>
+        <v>0.1731883281566921</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02433086434902029</v>
+        <v>0.02867972306977448</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>124</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1450516112.60911</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2367142295.862004</v>
+        <v>2468502743.151813</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1635317938194499</v>
+        <v>0.1668841533246223</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03510824798638976</v>
+        <v>0.03232649166170224</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1183571077.65565</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5253990435.86827</v>
+        <v>4853029444.946142</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08742858855304843</v>
+        <v>0.08676717697896602</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02817137375076698</v>
+        <v>0.03024008331967882</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2626995255.24187</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2008927322.725881</v>
+        <v>1538250225.489266</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1378432874054039</v>
+        <v>0.168031265384067</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03130073708679715</v>
+        <v>0.03090527247218509</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1004463724.192833</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4430599763.11889</v>
+        <v>3150233263.130726</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08735984606378372</v>
+        <v>0.1313385380329147</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04643925016238825</v>
+        <v>0.0524716982031035</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>126</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2215299816.49051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1450033850.660197</v>
+        <v>1630993742.123638</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1335407889084864</v>
+        <v>0.1577902188070661</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03022751948594049</v>
+        <v>0.02907073484357722</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>725016950.7779634</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5513809623.403333</v>
+        <v>5043768875.693315</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1059004207447832</v>
+        <v>0.09608758762773346</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03633667816569828</v>
+        <v>0.03474272971860785</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2756904886.488521</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4176130967.481349</v>
+        <v>3527825108.417424</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09991805435850754</v>
+        <v>0.1170983213111425</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02160304008550803</v>
+        <v>0.02441146013146354</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>82</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2088065453.499293</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4530547404.4433</v>
+        <v>3541123902.127635</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1979814992937455</v>
+        <v>0.1442962723974907</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02437464426648418</v>
+        <v>0.01919129864390396</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>126</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2265273712.394544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2429849049.257626</v>
+        <v>1859767638.111421</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1534453584263744</v>
+        <v>0.1053386896476255</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03951665260557264</v>
+        <v>0.02823108265025613</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1214924563.478158</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1825697091.721844</v>
+        <v>1999795996.830792</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07943758088911523</v>
+        <v>0.08142786875130842</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05111289086752006</v>
+        <v>0.04862722693393548</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>912848576.3790247</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2582920531.211373</v>
+        <v>3469039086.460958</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1339546865740087</v>
+        <v>0.1457308447736597</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04874069458803022</v>
+        <v>0.04889752805893909</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>136</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1291460279.72212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1965272010.995674</v>
+        <v>2575246865.892832</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1331401101802751</v>
+        <v>0.1285285361867607</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01869772876804826</v>
+        <v>0.02080949727302794</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>48</v>
-      </c>
-      <c r="J86" t="n">
-        <v>982636028.303858</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1028535417.945166</v>
+        <v>1197239830.134371</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1885402337266539</v>
+        <v>0.1347604774654301</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03192915288681308</v>
+        <v>0.03862089963178623</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>514267720.6141805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2328894743.012428</v>
+        <v>3467491623.315392</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1305691422245623</v>
+        <v>0.1248062255986559</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02629482228433774</v>
+        <v>0.0356127984048917</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>144</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1164447335.633197</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2450233958.689206</v>
+        <v>2496591647.53084</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1441259368228004</v>
+        <v>0.1345298175368238</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03140219802825162</v>
+        <v>0.04061527369208585</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>122</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1225117057.777367</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1669303963.084164</v>
+        <v>1863546701.716525</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0885783125664536</v>
+        <v>0.1141296901242436</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0339967283960548</v>
+        <v>0.05138264735271329</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>834651991.3027223</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1451128296.17162</v>
+        <v>1700259218.200457</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1424608925530268</v>
+        <v>0.1224523857746096</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05389751869515885</v>
+        <v>0.05020943476693732</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>725564193.5507594</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2903155347.144971</v>
+        <v>1998599966.247484</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07337485972783714</v>
+        <v>0.103038937732514</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03272034490575652</v>
+        <v>0.02966895870369255</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>100</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1451577687.998845</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4112136245.800173</v>
+        <v>3601702610.562753</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0946541062558864</v>
+        <v>0.1392015182474483</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03831621625906174</v>
+        <v>0.04909469305279236</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2056068116.257468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1834515786.922893</v>
+        <v>1683989765.463882</v>
       </c>
       <c r="F94" t="n">
-        <v>0.168012558793565</v>
+        <v>0.1467650066455109</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03738254187761141</v>
+        <v>0.03676800179998947</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>917257870.2936941</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2645099211.951046</v>
+        <v>2041298908.347113</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1064119331868885</v>
+        <v>0.1371983480114626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04905868548155666</v>
+        <v>0.04826054822745199</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1322549631.530826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1465656406.019154</v>
+        <v>1852296661.626558</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1397262487269956</v>
+        <v>0.09840623930822706</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03972733229353868</v>
+        <v>0.04358671044036028</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>732828247.0503591</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4942444325.430762</v>
+        <v>3646677511.839434</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1347780594060528</v>
+        <v>0.1320778712546695</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02836848754616911</v>
+        <v>0.01916965084548687</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>116</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2471222294.891228</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3429930650.402827</v>
+        <v>3584673775.185701</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1095365175149484</v>
+        <v>0.0844208000835366</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0289292362230132</v>
+        <v>0.0273397208739262</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1714965339.066313</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2816825667.235719</v>
+        <v>2638854777.231642</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1215377298651945</v>
+        <v>0.1171492686414284</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0312097965164334</v>
+        <v>0.03010205724168268</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>114</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1408412806.313897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3990333323.226252</v>
+        <v>3656537435.436455</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1801697738015285</v>
+        <v>0.1509953647012081</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01726863630555906</v>
+        <v>0.02680280196211124</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1995166731.513787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3415775367.080642</v>
+        <v>2329310310.374615</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1608641841524524</v>
+        <v>0.1915032507097204</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04593066045945506</v>
+        <v>0.04096622844367577</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>148</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1707887827.528111</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_363.xlsx
+++ b/output/fit_clients/fit_round_363.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2072325475.707967</v>
+        <v>2408618452.168978</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09702402037581062</v>
+        <v>0.09242614052760632</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02995720153226579</v>
+        <v>0.04445457316318827</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2155220235.566532</v>
+        <v>1688920433.614418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1578245854067971</v>
+        <v>0.1385355656727783</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0354199249406561</v>
+        <v>0.04169006731740179</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4629052465.713202</v>
+        <v>3915448766.414035</v>
       </c>
       <c r="F4" t="n">
-        <v>0.103737953741465</v>
+        <v>0.1362672490782603</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02333691802422983</v>
+        <v>0.02612846321885902</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3726540610.334184</v>
+        <v>3420443775.755949</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1023856642923153</v>
+        <v>0.08153637335666346</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04363119292194292</v>
+        <v>0.03541857971318924</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2384598001.394662</v>
+        <v>2481591940.733222</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1368384759056963</v>
+        <v>0.1132446111284622</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04943253394229718</v>
+        <v>0.04262046779350857</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2127078514.902296</v>
+        <v>2258164125.359533</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1014668381179746</v>
+        <v>0.08998976296911687</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0493408336085293</v>
+        <v>0.03731993667407731</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2996771991.529222</v>
+        <v>3528352520.947567</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1973537449820918</v>
+        <v>0.2062902866534576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02266888512628656</v>
+        <v>0.03285335191169104</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1962322059.125295</v>
+        <v>1474415151.18671</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1280937633332881</v>
+        <v>0.1650143090758796</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02353782307121319</v>
+        <v>0.03597261576242303</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4566132379.337353</v>
+        <v>4371040405.993713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1437779009960406</v>
+        <v>0.1601403578089385</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03710344846706252</v>
+        <v>0.04100823237612863</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2944915982.55911</v>
+        <v>3052691678.017357</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1251375075194398</v>
+        <v>0.1159663206591562</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03484394756477457</v>
+        <v>0.04695438052419247</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2364322458.835151</v>
+        <v>2481251879.955397</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1864076647505885</v>
+        <v>0.1679107646123214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0375151914598536</v>
+        <v>0.0340356316560313</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4939871721.590011</v>
+        <v>4828483031.779387</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07660254657995186</v>
+        <v>0.07526586637704841</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02234358845902524</v>
+        <v>0.02000807873194107</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2705567372.038651</v>
+        <v>3405669184.205626</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1827293064574528</v>
+        <v>0.1511046350474292</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03116563078361975</v>
+        <v>0.03138762061647973</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1551478306.331706</v>
+        <v>1735512114.177153</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08899936086257154</v>
+        <v>0.09278263951316572</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03959982591766718</v>
+        <v>0.03416253364991061</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1961137862.235404</v>
+        <v>1935136247.349222</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08053513587483892</v>
+        <v>0.07815702495495587</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04755528566089737</v>
+        <v>0.04587302355167937</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4185224207.399392</v>
+        <v>3497266279.250449</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1275678880390603</v>
+        <v>0.1525479392305297</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04989560710088851</v>
+        <v>0.04140749899615493</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3657696633.564359</v>
+        <v>3511882880.147247</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1448750452962209</v>
+        <v>0.1232421693644196</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02731932771796433</v>
+        <v>0.0293886929605555</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>989565124.4845998</v>
+        <v>1346467692.269333</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1728580553475263</v>
+        <v>0.1654243391940014</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02408767701899042</v>
+        <v>0.02599092734985546</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2082722298.037749</v>
+        <v>2068002952.946913</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1078551185981835</v>
+        <v>0.1514187266879218</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02813830020305898</v>
+        <v>0.03105348870600518</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2306652815.108218</v>
+        <v>1914319277.105742</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07154933270055057</v>
+        <v>0.06399078912708707</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03148891699718524</v>
+        <v>0.04006328379710603</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3169087781.49953</v>
+        <v>3754649059.823225</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09439330845392913</v>
+        <v>0.1172662149611696</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04205250556563802</v>
+        <v>0.0352315522802596</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1282898150.660105</v>
+        <v>1042479230.384778</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1273840511727131</v>
+        <v>0.1184476370838271</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04435804578504277</v>
+        <v>0.04323042944892167</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3435881661.876397</v>
+        <v>3843484689.465602</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09672413701557056</v>
+        <v>0.103698016998574</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03430461782399252</v>
+        <v>0.03642913880306616</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1315844962.94596</v>
+        <v>1241181159.006753</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1102017141729477</v>
+        <v>0.101064435789075</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01927467294308057</v>
+        <v>0.02972435756467129</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1269815314.935406</v>
+        <v>1246022126.083488</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1057107481511397</v>
+        <v>0.09669494108888164</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03032093149182031</v>
+        <v>0.03725217118181697</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3799446133.348396</v>
+        <v>3802614152.728166</v>
       </c>
       <c r="F27" t="n">
-        <v>0.11659441177986</v>
+        <v>0.1147642521625566</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02196793847259492</v>
+        <v>0.02523718915404808</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3426696843.253156</v>
+        <v>2439797448.770051</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1180396577903087</v>
+        <v>0.1317099408536963</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04963721338073495</v>
+        <v>0.03211455887533866</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5318709747.261772</v>
+        <v>4620782994.990063</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1227827028113358</v>
+        <v>0.1289501924719008</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03923961251613752</v>
+        <v>0.04454207630272424</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1898167885.046051</v>
+        <v>2246991389.051671</v>
       </c>
       <c r="F30" t="n">
-        <v>0.139710436625466</v>
+        <v>0.1178686438196041</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04020791216879073</v>
+        <v>0.03592221358541899</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1052750110.223613</v>
+        <v>1234826184.958726</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09653159134185868</v>
+        <v>0.1015113742975118</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04312120296864024</v>
+        <v>0.04336932017229371</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1317230765.678121</v>
+        <v>1726287724.4891</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1022188766463307</v>
+        <v>0.0879200401961396</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03355977815843308</v>
+        <v>0.03118732030612496</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2357482146.979252</v>
+        <v>2985263698.125908</v>
       </c>
       <c r="F33" t="n">
-        <v>0.191035047407307</v>
+        <v>0.1445064858158141</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05746328978438382</v>
+        <v>0.04978942300263052</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>995224417.3994704</v>
+        <v>1395334695.125342</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1102987056056563</v>
+        <v>0.1090957118890329</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02847101891311745</v>
+        <v>0.01762377321587281</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>991492541.1581135</v>
+        <v>953667717.71033</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0874877442446131</v>
+        <v>0.08676794031499374</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03376793409531673</v>
+        <v>0.03807872471041608</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3156424833.133027</v>
+        <v>2509818113.67693</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1177675079121011</v>
+        <v>0.1702489873282245</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02132734141542643</v>
+        <v>0.0206414662046421</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1975884033.223566</v>
+        <v>2022614680.161833</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08428734959931576</v>
+        <v>0.0909500582207481</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03867766846465442</v>
+        <v>0.04133709296636284</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1553757450.062205</v>
+        <v>1389034259.340853</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1121015570202609</v>
+        <v>0.08769820218448449</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03275504257535861</v>
+        <v>0.02891010167028088</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1339118078.975945</v>
+        <v>1603484480.087167</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1169237248790549</v>
+        <v>0.1362138420303798</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02658574848677624</v>
+        <v>0.02066493438440811</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1583578667.229863</v>
+        <v>1596686114.258942</v>
       </c>
       <c r="F40" t="n">
-        <v>0.146278739810601</v>
+        <v>0.1105628799579151</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05504513335531822</v>
+        <v>0.05960698100912845</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2427119178.193489</v>
+        <v>2292048566.992324</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1570639995775475</v>
+        <v>0.1463070008203597</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02970864296447178</v>
+        <v>0.04364988667245789</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2992183458.655385</v>
+        <v>3592995103.104778</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08327312750891711</v>
+        <v>0.1081671026077148</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03833710673482739</v>
+        <v>0.02973506093508587</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2972857513.879581</v>
+        <v>2796900678.590088</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1273395045096115</v>
+        <v>0.1355883338889119</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01740565479862635</v>
+        <v>0.02048188611932136</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1456911224.244069</v>
+        <v>2103348181.237113</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06516394064946779</v>
+        <v>0.09370195682847166</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03300838030402387</v>
+        <v>0.03181494070940857</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1869449691.115422</v>
+        <v>2288460498.997373</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1400938180837649</v>
+        <v>0.1245925673166716</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03963293025712362</v>
+        <v>0.05283565687049696</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3698732257.09572</v>
+        <v>5434464407.926673</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1369005357006801</v>
+        <v>0.1644299283825671</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05797875632955305</v>
+        <v>0.05626257839707845</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5042035591.230996</v>
+        <v>3543039648.441869</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1831878241669068</v>
+        <v>0.1394183212209094</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05236309345158416</v>
+        <v>0.05935033223295302</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4255036517.580989</v>
+        <v>4641781341.575154</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08669394946871142</v>
+        <v>0.101268650861754</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0249891463324262</v>
+        <v>0.03593723057989665</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1491982054.198139</v>
+        <v>1450174439.314303</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1942501220597398</v>
+        <v>0.1488730975854698</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02799395348406636</v>
+        <v>0.02963793755716621</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3929330435.112302</v>
+        <v>2889389939.295272</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1095444633688491</v>
+        <v>0.1235345460179735</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04197504636279768</v>
+        <v>0.03948208791372267</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1099253682.649601</v>
+        <v>1279323232.774473</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1822119389475718</v>
+        <v>0.1781675419370225</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04149784045066741</v>
+        <v>0.040853988350657</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4278056618.68655</v>
+        <v>4687329077.778213</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1052888214668733</v>
+        <v>0.1361642935139298</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05449135502042112</v>
+        <v>0.03742017340062862</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2362090908.818044</v>
+        <v>2684446408.643976</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1778099950681577</v>
+        <v>0.1948548241822418</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02774779152798296</v>
+        <v>0.02519415157492579</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4649497857.15892</v>
+        <v>3834388000.147246</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1455756633414788</v>
+        <v>0.1210495827693737</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03801960690785165</v>
+        <v>0.05013947142229544</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4368319389.960343</v>
+        <v>4486009584.606674</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1494725774483688</v>
+        <v>0.1394018115636894</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01974787768530595</v>
+        <v>0.02892736494234956</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1266476698.445585</v>
+        <v>1692241264.308509</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1527166699292163</v>
+        <v>0.1443260995886434</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0362786723677504</v>
+        <v>0.05298429233781383</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3402956845.679635</v>
+        <v>4143297241.899326</v>
       </c>
       <c r="F57" t="n">
-        <v>0.111224345319963</v>
+        <v>0.1493386877312491</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0240601484902933</v>
+        <v>0.01958699432857717</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1694236816.797758</v>
+        <v>1452927635.637461</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1622162096695606</v>
+        <v>0.1474181776159995</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02409612315153718</v>
+        <v>0.034068652775132</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3670060367.023071</v>
+        <v>4708271316.794692</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1187388914270053</v>
+        <v>0.1016674267243477</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04536674746221935</v>
+        <v>0.03501366776196192</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2619083224.080613</v>
+        <v>3486586937.314034</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1511577230846563</v>
+        <v>0.1816767553029634</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02644619799782846</v>
+        <v>0.03116810223347654</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3250466891.428759</v>
+        <v>3289572936.92702</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1217619294508613</v>
+        <v>0.1215242019122399</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02932215825785739</v>
+        <v>0.02483658348883348</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1457947040.976248</v>
+        <v>1584834509.799399</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1270708067265074</v>
+        <v>0.1531919547216731</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03417032602478007</v>
+        <v>0.04061240174979181</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4732530664.57621</v>
+        <v>4055503577.44281</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06522410730480856</v>
+        <v>0.08268138342124144</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03170641061225368</v>
+        <v>0.03124696450428576</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3910502450.445499</v>
+        <v>3946856113.114717</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1888106588085939</v>
+        <v>0.1630818569670146</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03169232002747525</v>
+        <v>0.03490169434982576</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3760415826.561069</v>
+        <v>5654728141.082728</v>
       </c>
       <c r="F65" t="n">
-        <v>0.107371810294444</v>
+        <v>0.1621887448844293</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02831587518970965</v>
+        <v>0.02443576687767441</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4615329889.882737</v>
+        <v>5707984802.863974</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1294262674934831</v>
+        <v>0.1387124242616709</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04432162027906243</v>
+        <v>0.04136906558545076</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3397026912.298512</v>
+        <v>2924151377.632932</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09426382099368488</v>
+        <v>0.07548574682545126</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04206899152014362</v>
+        <v>0.04748439060764603</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5305851214.922345</v>
+        <v>5839466769.427159</v>
       </c>
       <c r="F68" t="n">
-        <v>0.110816429801229</v>
+        <v>0.1095677027759076</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03349026942192501</v>
+        <v>0.03141259990723275</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1976142938.107113</v>
+        <v>1844330067.670395</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1672030445533071</v>
+        <v>0.1168673556546894</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04739311803707349</v>
+        <v>0.04463756669124685</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3213398058.116376</v>
+        <v>2807053280.997102</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100429208643102</v>
+        <v>0.1010874679623936</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03908073300253167</v>
+        <v>0.04547132932475412</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4242914369.877051</v>
+        <v>3512643675.489684</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1261063481758028</v>
+        <v>0.1222934512228439</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02979034586878271</v>
+        <v>0.03138904049363249</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1658652282.056224</v>
+        <v>1882395603.731028</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06883282299453748</v>
+        <v>0.08912219000838983</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03614389591078589</v>
+        <v>0.04539844012394538</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3491963582.992284</v>
+        <v>3157185112.422074</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1089020170396037</v>
+        <v>0.1072520164748793</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05150177747727528</v>
+        <v>0.03899371610134506</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3705510460.246776</v>
+        <v>2573522154.896191</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1731883281566921</v>
+        <v>0.1656828089749607</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02867972306977448</v>
+        <v>0.02260372109995214</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2468502743.151813</v>
+        <v>2424891065.234973</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1668841533246223</v>
+        <v>0.1566706474821351</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03232649166170224</v>
+        <v>0.03662333033851485</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4853029444.946142</v>
+        <v>3801500078.001003</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08676717697896602</v>
+        <v>0.1097154544902126</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03024008331967882</v>
+        <v>0.03052205279706135</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1538250225.489266</v>
+        <v>2248815952.385251</v>
       </c>
       <c r="F77" t="n">
-        <v>0.168031265384067</v>
+        <v>0.1280959715169087</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03090527247218509</v>
+        <v>0.03181792174413803</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3150233263.130726</v>
+        <v>3527146141.652952</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1313385380329147</v>
+        <v>0.1272230217634407</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0524716982031035</v>
+        <v>0.05042167601721577</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1630993742.123638</v>
+        <v>1558825995.862338</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1577902188070661</v>
+        <v>0.1228483230018289</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02907073484357722</v>
+        <v>0.03326200376492041</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5043768875.693315</v>
+        <v>5573766274.442792</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09608758762773346</v>
+        <v>0.09669989748582437</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03474272971860785</v>
+        <v>0.02568218134822198</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3527825108.417424</v>
+        <v>3241461120.041994</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1170983213111425</v>
+        <v>0.1112401935182338</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02441146013146354</v>
+        <v>0.03299883212705661</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3541123902.127635</v>
+        <v>4655544399.777876</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1442962723974907</v>
+        <v>0.1649606316759138</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01919129864390396</v>
+        <v>0.02888902146329309</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1859767638.111421</v>
+        <v>2213767559.72297</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1053386896476255</v>
+        <v>0.1243871992272014</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02823108265025613</v>
+        <v>0.04241924612464943</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1999795996.830792</v>
+        <v>2161774705.048427</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08142786875130842</v>
+        <v>0.07977030386849446</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04862722693393548</v>
+        <v>0.04635621380097431</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3469039086.460958</v>
+        <v>2892584358.791341</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1457308447736597</v>
+        <v>0.1512717320986195</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04889752805893909</v>
+        <v>0.05216834372567566</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2575246865.892832</v>
+        <v>1957202713.13151</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1285285361867607</v>
+        <v>0.1666765255464592</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02080949727302794</v>
+        <v>0.0207048754159069</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1197239830.134371</v>
+        <v>991933336.3565236</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1347604774654301</v>
+        <v>0.1160420307942349</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03862089963178623</v>
+        <v>0.02810074208413778</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3467491623.315392</v>
+        <v>3608750629.884062</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1248062255986559</v>
+        <v>0.1746043025795471</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0356127984048917</v>
+        <v>0.0335321406903034</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2496591647.53084</v>
+        <v>3019069993.986934</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1345298175368238</v>
+        <v>0.1170555831194227</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04061527369208585</v>
+        <v>0.0321796722878092</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1863546701.716525</v>
+        <v>1441446880.793292</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1141296901242436</v>
+        <v>0.09414774051324264</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05138264735271329</v>
+        <v>0.03521920462362737</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1700259218.200457</v>
+        <v>1530533612.435615</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1224523857746096</v>
+        <v>0.1623375965167973</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05020943476693732</v>
+        <v>0.04141837977673438</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1998599966.247484</v>
+        <v>2383250521.674561</v>
       </c>
       <c r="F92" t="n">
-        <v>0.103038937732514</v>
+        <v>0.1014163213394265</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02966895870369255</v>
+        <v>0.04379338824170908</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3601702610.562753</v>
+        <v>3526258067.917975</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1392015182474483</v>
+        <v>0.1330946906341291</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04909469305279236</v>
+        <v>0.03442873794683848</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1683989765.463882</v>
+        <v>1704499600.930427</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1467650066455109</v>
+        <v>0.1378931904647678</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03676800179998947</v>
+        <v>0.03393150089699594</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2041298908.347113</v>
+        <v>2415923517.005175</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1371983480114626</v>
+        <v>0.1197010972634067</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04826054822745199</v>
+        <v>0.0463265433895001</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1852296661.626558</v>
+        <v>1600018227.442629</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09840623930822706</v>
+        <v>0.1246660774756744</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04358671044036028</v>
+        <v>0.04345720696237201</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3646677511.839434</v>
+        <v>4517099905.106559</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1320778712546695</v>
+        <v>0.1231397106895724</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01916965084548687</v>
+        <v>0.02848744696929458</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3584673775.185701</v>
+        <v>2564814823.367569</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0844208000835366</v>
+        <v>0.1021398964698051</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0273397208739262</v>
+        <v>0.03053538995318881</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2638854777.231642</v>
+        <v>2988101724.65981</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1171492686414284</v>
+        <v>0.09884489531182757</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03010205724168268</v>
+        <v>0.02516891088635264</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3656537435.436455</v>
+        <v>2993683376.129034</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1509953647012081</v>
+        <v>0.1275399907065495</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02680280196211124</v>
+        <v>0.02793747637966371</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2329310310.374615</v>
+        <v>3174388631.805784</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1915032507097204</v>
+        <v>0.138782235728487</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04096622844367577</v>
+        <v>0.05061976859312017</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_363.xlsx
+++ b/output/fit_clients/fit_round_363.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2408618452.168978</v>
+        <v>1915919949.239792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09242614052760632</v>
+        <v>0.1038784469437908</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04445457316318827</v>
+        <v>0.04168827891866975</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1688920433.614418</v>
+        <v>2572423442.105783</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1385355656727783</v>
+        <v>0.1306146872118535</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04169006731740179</v>
+        <v>0.0497625498372808</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3915448766.414035</v>
+        <v>3564213929.974687</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1362672490782603</v>
+        <v>0.127377495603598</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02612846321885902</v>
+        <v>0.03072164043306486</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>187</v>
+      </c>
+      <c r="J4" t="n">
+        <v>363</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3420443775.755949</v>
+        <v>3074892958.335835</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08153637335666346</v>
+        <v>0.07522424229775072</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03541857971318924</v>
+        <v>0.03086790975883158</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>146</v>
+      </c>
+      <c r="J5" t="n">
+        <v>362</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45.28868405308505</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2481591940.733222</v>
+        <v>2418688339.470883</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1132446111284622</v>
+        <v>0.1064310317642681</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04262046779350857</v>
+        <v>0.04857205944742433</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2258164125.359533</v>
+        <v>2431057553.554217</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08998976296911687</v>
+        <v>0.08895490219523126</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03731993667407731</v>
+        <v>0.04487570221786697</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3528352520.947567</v>
+        <v>2915725771.195486</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2062902866534576</v>
+        <v>0.1440910827464503</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03285335191169104</v>
+        <v>0.03230649562234215</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>94</v>
+      </c>
+      <c r="J8" t="n">
+        <v>354</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1474415151.18671</v>
+        <v>2180862173.523203</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1650143090758796</v>
+        <v>0.1941497083596754</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03597261576242303</v>
+        <v>0.0336209537524664</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4371040405.993713</v>
+        <v>3962009730.326311</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1601403578089385</v>
+        <v>0.1989628648464674</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04100823237612863</v>
+        <v>0.0352504845071494</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>303</v>
+      </c>
+      <c r="J10" t="n">
+        <v>362</v>
+      </c>
+      <c r="K10" t="n">
+        <v>59.03987477936723</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3052691678.017357</v>
+        <v>3624904029.49387</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1159663206591562</v>
+        <v>0.1892146031605576</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04695438052419247</v>
+        <v>0.04088263102361472</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>152</v>
+      </c>
+      <c r="J11" t="n">
+        <v>362</v>
+      </c>
+      <c r="K11" t="n">
+        <v>57.29513410316619</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2481251879.955397</v>
+        <v>2973069813.144838</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1679107646123214</v>
+        <v>0.1878676216684242</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0340356316560313</v>
+        <v>0.03642137207169987</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4828483031.779387</v>
+        <v>4038510069.934262</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07526586637704841</v>
+        <v>0.09258157310452447</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02000807873194107</v>
+        <v>0.02786228259121264</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>188</v>
+      </c>
+      <c r="J13" t="n">
+        <v>363</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3405669184.205626</v>
+        <v>3317909860.126179</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1511046350474292</v>
+        <v>0.1812442749023464</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03138762061647973</v>
+        <v>0.03162659596407549</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>359</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1735512114.177153</v>
+        <v>1195406005.336671</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09278263951316572</v>
+        <v>0.07322422350276227</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03416253364991061</v>
+        <v>0.04676327351663546</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1935136247.349222</v>
+        <v>2282787684.404474</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07815702495495587</v>
+        <v>0.08890198823986795</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04587302355167937</v>
+        <v>0.03233626920208121</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3497266279.250449</v>
+        <v>4681625306.629045</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1525479392305297</v>
+        <v>0.1415747544890909</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04140749899615493</v>
+        <v>0.03617549638465589</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>171</v>
+      </c>
+      <c r="J17" t="n">
+        <v>363</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3511882880.147247</v>
+        <v>3268935182.369581</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1232421693644196</v>
+        <v>0.1843380575321551</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0293886929605555</v>
+        <v>0.02527412229272699</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>89</v>
+      </c>
+      <c r="J18" t="n">
+        <v>362</v>
+      </c>
+      <c r="K18" t="n">
+        <v>51.02399044367947</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1346467692.269333</v>
+        <v>1340543401.146595</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1654243391940014</v>
+        <v>0.1627703463167636</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02599092734985546</v>
+        <v>0.01726878446798212</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2068002952.946913</v>
+        <v>2453533297.78161</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1514187266879218</v>
+        <v>0.1440712992380444</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03105348870600518</v>
+        <v>0.01933317517557677</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1914319277.105742</v>
+        <v>2461491043.17125</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06399078912708707</v>
+        <v>0.07901015146802721</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04006328379710603</v>
+        <v>0.0319259861939637</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3754649059.823225</v>
+        <v>3633099611.828545</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1172662149611696</v>
+        <v>0.1407961077345511</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0352315522802596</v>
+        <v>0.05173461210262325</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>99</v>
+      </c>
+      <c r="J22" t="n">
+        <v>363</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1042479230.384778</v>
+        <v>1476188747.45077</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1184476370838271</v>
+        <v>0.1191007169298921</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04323042944892167</v>
+        <v>0.03499070622677811</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3843484689.465602</v>
+        <v>3747662500.06244</v>
       </c>
       <c r="F24" t="n">
-        <v>0.103698016998574</v>
+        <v>0.1076085059739697</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03642913880306616</v>
+        <v>0.02387650445625312</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>111</v>
+      </c>
+      <c r="J24" t="n">
+        <v>363</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1241181159.006753</v>
+        <v>1357596029.249037</v>
       </c>
       <c r="F25" t="n">
-        <v>0.101064435789075</v>
+        <v>0.07510542835278361</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02972435756467129</v>
+        <v>0.02234752991216561</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1246022126.083488</v>
+        <v>1083032998.570198</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09669494108888164</v>
+        <v>0.07868239087855909</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03725217118181697</v>
+        <v>0.02614454925041588</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3802614152.728166</v>
+        <v>2956173101.500856</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1147642521625566</v>
+        <v>0.1171431846408384</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02523718915404808</v>
+        <v>0.02101601311385135</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>152</v>
+      </c>
+      <c r="J27" t="n">
+        <v>362</v>
+      </c>
+      <c r="K27" t="n">
+        <v>33.87606141711657</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2439797448.770051</v>
+        <v>2528258055.542742</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1317099408536963</v>
+        <v>0.1173799454862715</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03211455887533866</v>
+        <v>0.03973355447395967</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4620782994.990063</v>
+        <v>3968488468.894376</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1289501924719008</v>
+        <v>0.1274994802154016</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04454207630272424</v>
+        <v>0.03059848334848331</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>319</v>
+      </c>
+      <c r="J29" t="n">
+        <v>363</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2246991389.051671</v>
+        <v>1527633174.463943</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1178686438196041</v>
+        <v>0.09299998828209075</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03592221358541899</v>
+        <v>0.03201674676465747</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1234826184.958726</v>
+        <v>1037054559.619406</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1015113742975118</v>
+        <v>0.08831188652931062</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04336932017229371</v>
+        <v>0.05234397395322569</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1726287724.4891</v>
+        <v>1560731381.749815</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0879200401961396</v>
+        <v>0.1035267536101891</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03118732030612496</v>
+        <v>0.02337635677603456</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2985263698.125908</v>
+        <v>3060221439.806322</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1445064858158141</v>
+        <v>0.1972978755800587</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04978942300263052</v>
+        <v>0.03978018066514198</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1395334695.125342</v>
+        <v>1574342878.276343</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1090957118890329</v>
+        <v>0.08404928010150954</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01762377321587281</v>
+        <v>0.02336968635300874</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>953667717.71033</v>
+        <v>1303757206.463241</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08676794031499374</v>
+        <v>0.07559553769297393</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03807872471041608</v>
+        <v>0.0421247115421061</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2509818113.67693</v>
+        <v>2168098207.598709</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1702489873282245</v>
+        <v>0.1107302249943819</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0206414662046421</v>
+        <v>0.0212262366721193</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2022614680.161833</v>
+        <v>1926554981.845053</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0909500582207481</v>
+        <v>0.07736112382425432</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04133709296636284</v>
+        <v>0.02892515356390366</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1389034259.340853</v>
+        <v>1465053989.566262</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08769820218448449</v>
+        <v>0.118249356221685</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02891010167028088</v>
+        <v>0.0325237066925028</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1603484480.087167</v>
+        <v>1424989663.998962</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1362138420303798</v>
+        <v>0.1463391331755091</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02066493438440811</v>
+        <v>0.02358880675643405</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1596686114.258942</v>
+        <v>1502923152.750245</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1105628799579151</v>
+        <v>0.1566688877707077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05960698100912845</v>
+        <v>0.05934687068360557</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2292048566.992324</v>
+        <v>1996244280.468949</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1463070008203597</v>
+        <v>0.1092284901034868</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04364988667245789</v>
+        <v>0.02994622584910166</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3592995103.104778</v>
+        <v>2695341400.377815</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1081671026077148</v>
+        <v>0.09715447079309708</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02973506093508587</v>
+        <v>0.04351191702993073</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>161</v>
+      </c>
+      <c r="J42" t="n">
+        <v>362</v>
+      </c>
+      <c r="K42" t="n">
+        <v>30.09586812864617</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2796900678.590088</v>
+        <v>2386842310.409502</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1355883338889119</v>
+        <v>0.1415422866097669</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02048188611932136</v>
+        <v>0.0222350555741444</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2103348181.237113</v>
+        <v>1776811974.248659</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09370195682847166</v>
+        <v>0.06538976995187795</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03181494070940857</v>
+        <v>0.02617857125041875</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2288460498.997373</v>
+        <v>1914876738.563554</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1245925673166716</v>
+        <v>0.1647569163939548</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05283565687049696</v>
+        <v>0.0354162976052534</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5434464407.926673</v>
+        <v>5235302994.803665</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1644299283825671</v>
+        <v>0.1225994741582459</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05626257839707845</v>
+        <v>0.05452158394558299</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>218</v>
+      </c>
+      <c r="J46" t="n">
+        <v>362</v>
+      </c>
+      <c r="K46" t="n">
+        <v>59.0830105235576</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3543039648.441869</v>
+        <v>3336578696.052921</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1394183212209094</v>
+        <v>0.1986419953134823</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05935033223295302</v>
+        <v>0.04440558820955477</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>162</v>
+      </c>
+      <c r="J47" t="n">
+        <v>361</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4641781341.575154</v>
+        <v>4030297277.328819</v>
       </c>
       <c r="F48" t="n">
-        <v>0.101268650861754</v>
+        <v>0.1018352682724913</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03593723057989665</v>
+        <v>0.02631771824503468</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>185</v>
+      </c>
+      <c r="J48" t="n">
+        <v>363</v>
+      </c>
+      <c r="K48" t="n">
+        <v>63.36100344630778</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1450174439.314303</v>
+        <v>1987216439.741067</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1488730975854698</v>
+        <v>0.1886047177600637</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02963793755716621</v>
+        <v>0.03316766354306533</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2889389939.295272</v>
+        <v>3197797180.281787</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1235345460179735</v>
+        <v>0.1653444219324468</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03948208791372267</v>
+        <v>0.03479912021186871</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>120</v>
+      </c>
+      <c r="J50" t="n">
+        <v>360</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1279323232.774473</v>
+        <v>1432842590.610481</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1781675419370225</v>
+        <v>0.1707496952708436</v>
       </c>
       <c r="G51" t="n">
-        <v>0.040853988350657</v>
+        <v>0.03538773888715586</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4687329077.778213</v>
+        <v>3645214043.816257</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1361642935139298</v>
+        <v>0.1229419239615348</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03742017340062862</v>
+        <v>0.04598545429675933</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>215</v>
+      </c>
+      <c r="J52" t="n">
+        <v>362</v>
+      </c>
+      <c r="K52" t="n">
+        <v>50.19787047498355</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2684446408.643976</v>
+        <v>2494594808.272136</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1948548241822418</v>
+        <v>0.1464570140817943</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02519415157492579</v>
+        <v>0.02302093364742015</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3834388000.147246</v>
+        <v>3429675724.92875</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1210495827693737</v>
+        <v>0.1339288995915519</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05013947142229544</v>
+        <v>0.0362426643024672</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>192</v>
+      </c>
+      <c r="J54" t="n">
+        <v>363</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4486009584.606674</v>
+        <v>3590124744.569041</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1394018115636894</v>
+        <v>0.1451393677846174</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02892736494234956</v>
+        <v>0.02337859805873184</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>174</v>
+      </c>
+      <c r="J55" t="n">
+        <v>362</v>
+      </c>
+      <c r="K55" t="n">
+        <v>51.63571987958894</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1692241264.308509</v>
+        <v>1260407737.947511</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1443260995886434</v>
+        <v>0.1042786141595304</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05298429233781383</v>
+        <v>0.04937181708384274</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4143297241.899326</v>
+        <v>4428178017.050127</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1493386877312491</v>
+        <v>0.161492312425782</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01958699432857717</v>
+        <v>0.02108409553463458</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>150</v>
+      </c>
+      <c r="J57" t="n">
+        <v>363</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1452927635.637461</v>
+        <v>1376335389.024334</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1474181776159995</v>
+        <v>0.1713675552281946</v>
       </c>
       <c r="G58" t="n">
-        <v>0.034068652775132</v>
+        <v>0.03226268426135975</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4708271316.794692</v>
+        <v>4066990093.344604</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1016674267243477</v>
+        <v>0.0946893378519393</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03501366776196192</v>
+        <v>0.04021186624322285</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>176</v>
+      </c>
+      <c r="J59" t="n">
+        <v>363</v>
+      </c>
+      <c r="K59" t="n">
+        <v>59.68996091666189</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3486586937.314034</v>
+        <v>2670268776.84609</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1816767553029634</v>
+        <v>0.1432206326430215</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03116810223347654</v>
+        <v>0.02206295364673544</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>64</v>
+      </c>
+      <c r="J60" t="n">
+        <v>359</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,22 +2582,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3289572936.92702</v>
+        <v>2759931093.275574</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1215242019122399</v>
+        <v>0.1376657075712569</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02483658348883348</v>
+        <v>0.03104989095605066</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="n">
+        <v>47.06951335432043</v>
       </c>
     </row>
     <row r="62">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1584834509.799399</v>
+        <v>1336348728.364728</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1531919547216731</v>
+        <v>0.1219975480105747</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04061240174979181</v>
+        <v>0.0490655172717133</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4055503577.44281</v>
+        <v>3853202090.015122</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08268138342124144</v>
+        <v>0.09257389261877999</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03124696450428576</v>
+        <v>0.04612576208403099</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>178</v>
+      </c>
+      <c r="J63" t="n">
+        <v>363</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3946856113.114717</v>
+        <v>5173274085.991169</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1630818569670146</v>
+        <v>0.1441330340500943</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03490169434982576</v>
+        <v>0.02273055659049859</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>180</v>
+      </c>
+      <c r="J64" t="n">
+        <v>362</v>
+      </c>
+      <c r="K64" t="n">
+        <v>58.70119592785042</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5654728141.082728</v>
+        <v>5396787847.997334</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1621887448844293</v>
+        <v>0.1311021180037638</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02443576687767441</v>
+        <v>0.02614101234456209</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>276</v>
+      </c>
+      <c r="J65" t="n">
+        <v>363</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5707984802.863974</v>
+        <v>5109329694.997757</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1387124242616709</v>
+        <v>0.1372977167394833</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04136906558545076</v>
+        <v>0.04554643858256781</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>179</v>
+      </c>
+      <c r="J66" t="n">
+        <v>363</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2924151377.632932</v>
+        <v>2521864147.615662</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07548574682545126</v>
+        <v>0.08312702775977696</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04748439060764603</v>
+        <v>0.0397330809735941</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5839466769.427159</v>
+        <v>5544549851.895983</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1095677027759076</v>
+        <v>0.1416758687435141</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03141259990723275</v>
+        <v>0.04838242970600828</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>197</v>
+      </c>
+      <c r="J68" t="n">
+        <v>363</v>
+      </c>
+      <c r="K68" t="n">
+        <v>60.58906866865529</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1844330067.670395</v>
+        <v>2419895108.089054</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1168673556546894</v>
+        <v>0.1673784682562442</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04463756669124685</v>
+        <v>0.04524488859119401</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2807053280.997102</v>
+        <v>3104984940.925976</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1010874679623936</v>
+        <v>0.07331114684537454</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04547132932475412</v>
+        <v>0.03347975358124951</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2944,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3512643675.489684</v>
+        <v>5331790079.851581</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1222934512228439</v>
+        <v>0.1677037243775391</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03138904049363249</v>
+        <v>0.02810427058892328</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>262</v>
+      </c>
+      <c r="J71" t="n">
+        <v>363</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1882395603.731028</v>
+        <v>1893514041.356772</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08912219000838983</v>
+        <v>0.09444848071382939</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04539844012394538</v>
+        <v>0.04116982389856916</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3157185112.422074</v>
+        <v>2811138558.526603</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1072520164748793</v>
+        <v>0.1060855100367238</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03899371610134506</v>
+        <v>0.0361338198389134</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2573522154.896191</v>
+        <v>3845966217.262163</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1656828089749607</v>
+        <v>0.1828495676304117</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02260372109995214</v>
+        <v>0.02158211649626419</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>102</v>
+      </c>
+      <c r="J74" t="n">
+        <v>363</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2424891065.234973</v>
+        <v>2289131942.646904</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1566706474821351</v>
+        <v>0.1202752411444573</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03662333033851485</v>
+        <v>0.03040525389241495</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3801500078.001003</v>
+        <v>4398459062.825828</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1097154544902126</v>
+        <v>0.07524283317067672</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03052205279706135</v>
+        <v>0.02928309270396655</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>172</v>
+      </c>
+      <c r="J76" t="n">
+        <v>362</v>
+      </c>
+      <c r="K76" t="n">
+        <v>57.99466426950558</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2248815952.385251</v>
+        <v>1400054823.361337</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1280959715169087</v>
+        <v>0.174961936189292</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03181792174413803</v>
+        <v>0.02789208059955187</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3527146141.652952</v>
+        <v>4791270370.654513</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1272230217634407</v>
+        <v>0.09134412515889472</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05042167601721577</v>
+        <v>0.0387430238608753</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>181</v>
+      </c>
+      <c r="J78" t="n">
+        <v>363</v>
+      </c>
+      <c r="K78" t="n">
+        <v>59.15903004840208</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1558825995.862338</v>
+        <v>1731367122.513108</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1228483230018289</v>
+        <v>0.1704391579876119</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03326200376492041</v>
+        <v>0.03651363641330228</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5573766274.442792</v>
+        <v>3384591647.471872</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09669989748582437</v>
+        <v>0.08962752160735146</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02568218134822198</v>
+        <v>0.02690864220638526</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>177</v>
+      </c>
+      <c r="J80" t="n">
+        <v>361</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3241461120.041994</v>
+        <v>3966962708.033141</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1112401935182338</v>
+        <v>0.1068796916109156</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03299883212705661</v>
+        <v>0.02144585043356349</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>168</v>
+      </c>
+      <c r="J81" t="n">
+        <v>362</v>
+      </c>
+      <c r="K81" t="n">
+        <v>57.08622720829176</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4655544399.777876</v>
+        <v>5683052956.69559</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1649606316759138</v>
+        <v>0.1335517316143952</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02888902146329309</v>
+        <v>0.02532610755487136</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>255</v>
+      </c>
+      <c r="J82" t="n">
+        <v>362</v>
+      </c>
+      <c r="K82" t="n">
+        <v>57.74796982812811</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2213767559.72297</v>
+        <v>2346165791.076105</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1243871992272014</v>
+        <v>0.1254576218537475</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04241924612464943</v>
+        <v>0.03872591966738265</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2161774705.048427</v>
+        <v>1883171429.70344</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07977030386849446</v>
+        <v>0.1130034494237556</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04635621380097431</v>
+        <v>0.05197424430771178</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2892584358.791341</v>
+        <v>2865156545.689937</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1512717320986195</v>
+        <v>0.1231338445996419</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05216834372567566</v>
+        <v>0.04247940767807462</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1957202713.13151</v>
+        <v>2493611032.676117</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1666765255464592</v>
+        <v>0.107566222060983</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0207048754159069</v>
+        <v>0.02649096184262414</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>991933336.3565236</v>
+        <v>1005746531.720353</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1160420307942349</v>
+        <v>0.1402321689804769</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02810074208413778</v>
+        <v>0.03326508410686509</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3608750629.884062</v>
+        <v>2327791955.94125</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1746043025795471</v>
+        <v>0.1570128731836034</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0335321406903034</v>
+        <v>0.03080993460711583</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3019069993.986934</v>
+        <v>2548638144.688182</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1170555831194227</v>
+        <v>0.1489698236829592</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0321796722878092</v>
+        <v>0.04036515722266611</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1441446880.793292</v>
+        <v>1585241559.973858</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09414774051324264</v>
+        <v>0.1126876841588584</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03521920462362737</v>
+        <v>0.05518144430905768</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1530533612.435615</v>
+        <v>1772848664.898364</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1623375965167973</v>
+        <v>0.1342940962944925</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04141837977673438</v>
+        <v>0.06082182976399832</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2383250521.674561</v>
+        <v>2302121859.306766</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1014163213394265</v>
+        <v>0.093926968129176</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04379338824170908</v>
+        <v>0.04561390343719295</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3526258067.917975</v>
+        <v>3231358643.821317</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1330946906341291</v>
+        <v>0.09626988581486851</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03442873794683848</v>
+        <v>0.04793292349653933</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>169</v>
+      </c>
+      <c r="J93" t="n">
+        <v>360</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1704499600.930427</v>
+        <v>1619233213.866077</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1378931904647678</v>
+        <v>0.1466212569701047</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03393150089699594</v>
+        <v>0.0284207942538184</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2415923517.005175</v>
+        <v>2075757143.3146</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1197010972634067</v>
+        <v>0.1226772183598724</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0463265433895001</v>
+        <v>0.03631769412791233</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1600018227.442629</v>
+        <v>1735279182.632587</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1246660774756744</v>
+        <v>0.1172493934001811</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04345720696237201</v>
+        <v>0.03570332232555829</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4517099905.106559</v>
+        <v>4276446212.110326</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1231397106895724</v>
+        <v>0.1704768143161159</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02848744696929458</v>
+        <v>0.02867627070549724</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>187</v>
+      </c>
+      <c r="J97" t="n">
+        <v>363</v>
+      </c>
+      <c r="K97" t="n">
+        <v>62.11864993024623</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2564814823.367569</v>
+        <v>3772917897.097149</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1021398964698051</v>
+        <v>0.1167365183564602</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03053538995318881</v>
+        <v>0.03181612866555165</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>89</v>
+      </c>
+      <c r="J98" t="n">
+        <v>363</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2988101724.65981</v>
+        <v>2249753787.201107</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09884489531182757</v>
+        <v>0.09176428771794419</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02516891088635264</v>
+        <v>0.0317469060360533</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3969,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2993683376.129034</v>
+        <v>3637696855.356942</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1275399907065495</v>
+        <v>0.1176271505922693</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02793747637966371</v>
+        <v>0.02660499648443004</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>163</v>
+      </c>
+      <c r="J100" t="n">
+        <v>363</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3174388631.805784</v>
+        <v>3188862500.848303</v>
       </c>
       <c r="F101" t="n">
-        <v>0.138782235728487</v>
+        <v>0.2075130385951759</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05061976859312017</v>
+        <v>0.05102829218677105</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="n">
+        <v>58.80916183342811</v>
       </c>
     </row>
   </sheetData>
